--- a/input_data/min_group.xlsx
+++ b/input_data/min_group.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkulakov\Desktop\hack\Number of man\Min_grup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkulakov\Desktop\hack\1-st part\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5100ED7-A53C-47F0-945C-907A5C9166F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDD13D0-B272-4811-AF2D-1315EFD44A4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="2505" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2880" windowWidth="18000" windowHeight="9225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>Опасные грузы. 8 категория</t>
   </si>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,154 +486,216 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>107</v>
-      </c>
-      <c r="B2">
-        <v>106</v>
-      </c>
-      <c r="C2" s="1">
-        <v>105</v>
-      </c>
-      <c r="D2">
-        <v>105</v>
-      </c>
-      <c r="E2">
-        <v>106</v>
-      </c>
-      <c r="F2">
-        <v>105</v>
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2">
-        <v>106</v>
-      </c>
-      <c r="M2">
-        <v>106</v>
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2">
-        <v>422</v>
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2">
-        <v>108</v>
-      </c>
-      <c r="R2">
-        <v>422</v>
-      </c>
-      <c r="S2">
-        <v>422</v>
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>107</v>
+      </c>
       <c r="B3">
-        <v>107</v>
-      </c>
-      <c r="C3">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="C3" s="1">
+        <v>105</v>
       </c>
       <c r="D3">
-        <v>106</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
+        <v>105</v>
+      </c>
+      <c r="E3">
+        <v>106</v>
       </c>
       <c r="F3">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>106</v>
       </c>
       <c r="M3">
+        <v>106</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3">
         <v>422</v>
       </c>
-      <c r="N3">
+      <c r="P3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>108</v>
+      </c>
+      <c r="R3">
         <v>422</v>
       </c>
-      <c r="O3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3">
+      <c r="S3">
         <v>422</v>
       </c>
-      <c r="R3">
-        <v>416</v>
-      </c>
-      <c r="T3">
-        <v>106</v>
+      <c r="T3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C4">
-        <v>106</v>
-      </c>
-      <c r="E4">
-        <v>105</v>
-      </c>
-      <c r="K4">
+        <v>107</v>
+      </c>
+      <c r="D4">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>106</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4">
         <v>422</v>
       </c>
-      <c r="M4" t="s">
-        <v>10</v>
-      </c>
       <c r="N4">
-        <v>106</v>
-      </c>
-      <c r="O4">
+        <v>422</v>
+      </c>
+      <c r="O4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>422</v>
+      </c>
+      <c r="R4">
         <v>416</v>
       </c>
-      <c r="P4">
-        <v>416</v>
-      </c>
-      <c r="R4" t="s">
-        <v>19</v>
-      </c>
       <c r="T4">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>105</v>
+      </c>
+      <c r="C5">
+        <v>106</v>
+      </c>
       <c r="E5">
+        <v>105</v>
+      </c>
+      <c r="K5">
         <v>422</v>
       </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
       <c r="N5">
+        <v>106</v>
+      </c>
+      <c r="O5">
         <v>416</v>
       </c>
-      <c r="O5">
+      <c r="P5">
+        <v>416</v>
+      </c>
+      <c r="R5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5">
         <v>105</v>
       </c>
-      <c r="R5" t="s">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>422</v>
+      </c>
+      <c r="N6">
+        <v>416</v>
+      </c>
+      <c r="O6">
+        <v>105</v>
+      </c>
+      <c r="R6" t="s">
         <v>10</v>
       </c>
     </row>

--- a/input_data/min_group.xlsx
+++ b/input_data/min_group.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkulakov\Desktop\hack\1-st part\input_data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDD13D0-B272-4811-AF2D-1315EFD44A4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2880" windowWidth="18000" windowHeight="9225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2880" windowWidth="18000" windowHeight="9225"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -102,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,18 +401,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +591,7 @@
         <v>10</v>
       </c>
       <c r="Q3">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R3">
         <v>422</v>
